--- a/template/rdjk/lembar_honor.xlsx
+++ b/template/rdjk/lembar_honor.xlsx
@@ -716,7 +716,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -746,6 +746,7 @@
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
@@ -964,12 +965,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="J10:K12"/>
     <mergeCell ref="B10:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>

--- a/template/rdjk/lembar_honor.xlsx
+++ b/template/rdjk/lembar_honor.xlsx
@@ -18,14 +18,16 @@
     <definedName name="akun">Sheet1!$E$7</definedName>
     <definedName name="daftar">Sheet1!$A$1</definedName>
     <definedName name="kakun">Sheet1!$C$7</definedName>
-    <definedName name="keg">Sheet1!$E$4</definedName>
-    <definedName name="kkeg">Sheet1!$C$4</definedName>
-    <definedName name="kkomp">Sheet1!$C$6</definedName>
-    <definedName name="komp">Sheet1!$E$6</definedName>
-    <definedName name="koutp">Sheet1!$C$5</definedName>
-    <definedName name="kprog">Sheet1!$C$3</definedName>
-    <definedName name="outp">Sheet1!$E$5</definedName>
-    <definedName name="prog">Sheet1!$E$3</definedName>
+    <definedName name="keg">Sheet1!$E$3</definedName>
+    <definedName name="kkeg">Sheet1!$C$3</definedName>
+    <definedName name="kkomp">Sheet1!$C$5</definedName>
+    <definedName name="komp">Sheet1!$E$5</definedName>
+    <definedName name="koutp">Sheet1!$C$4</definedName>
+    <definedName name="kprog">Sheet1!$C$2</definedName>
+    <definedName name="kskomp">Sheet1!$C$6</definedName>
+    <definedName name="outp">Sheet1!$E$4</definedName>
+    <definedName name="prog">Sheet1!$E$2</definedName>
+    <definedName name="skomp">Sheet1!$E$6</definedName>
     <definedName name="tgl">Sheet1!$C$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>PROGRAM</t>
   </si>
@@ -125,6 +127,9 @@
   </si>
   <si>
     <t>(9)</t>
+  </si>
+  <si>
+    <t>SUB KOMPONEN</t>
   </si>
 </sst>
 </file>
@@ -332,7 +337,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,13 +392,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -716,7 +718,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -735,34 +737,36 @@
     <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
@@ -776,35 +780,35 @@
     </row>
     <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="13"/>
@@ -857,13 +861,13 @@
       <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="3"/>
       <c r="E10" s="5" t="s">
         <v>8</v>
@@ -880,15 +884,15 @@
       <c r="I10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="27"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
@@ -907,13 +911,13 @@
       <c r="I11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="4"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7" t="s">
@@ -928,17 +932,17 @@
       <c r="I12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="11" t="s">
         <v>22</v>
       </c>
@@ -957,20 +961,19 @@
       <c r="I13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="22"/>
+      <c r="K13" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A2:J2"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="J10:K12"/>
     <mergeCell ref="B10:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
